--- a/Data Collected.xlsx
+++ b/Data Collected.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockholmuniversity-my.sharepoint.com/personal/joka3224_win_su_se/Documents/Programme Courses/Masters Thesis/Real Thesis/Lab/thesis_land/exploit-t/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22221FBF-3768-41DE-ACF3-76FE54362F64}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vuln_ex_score" sheetId="1" r:id="rId1"/>
     <sheet name="variables_interest" sheetId="2" r:id="rId2"/>
+    <sheet name="Scoring" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t xml:space="preserve">Service </t>
   </si>
@@ -88,13 +89,70 @@
   </si>
   <si>
     <t>TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine node is scannable </t>
+  </si>
+  <si>
+    <t>Determine service is reachable</t>
+  </si>
+  <si>
+    <t>Determine service is exploitable</t>
+  </si>
+  <si>
+    <t>Attempt exploitation and determine success or failure</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Determine node is reachable</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Task Factor</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> node is reachable </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> node is scannable </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> service is reachable </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> service is exploitable </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploitation is successful </t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +188,41 @@
       <name val="Avenir Next LT Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,10 +256,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -174,33 +268,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,7 +654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -547,115 +670,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -669,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -684,65 +807,199 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B9D42B-67A2-4ACD-AD07-C8DBA1327A89}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="55.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
